--- a/Secure Messages_Comments_Labeled.xlsx
+++ b/Secure Messages_Comments_Labeled.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316316E0-00DF-48CD-9A4D-323A2B0156C1}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25650" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,18 +1020,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>143</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>52</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>56</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>58</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>62</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>67</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>68</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>70</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>71</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>72</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>73</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>74</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>75</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>77</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>78</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>80</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>81</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>82</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>83</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>84</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>85</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>86</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>87</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>88</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>89</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>90</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>91</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>92</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>93</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>95</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>96</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>97</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>98</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>99</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>100</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>102</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>103</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>104</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>105</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>106</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>107</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>108</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>109</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>111</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>112</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>113</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>114</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>115</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>116</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>117</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>118</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>119</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>120</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>121</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>122</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>123</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>124</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>125</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>126</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>127</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>128</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>129</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>130</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>131</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>132</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>133</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>134</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>135</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>136</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>137</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>138</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>139</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>140</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>141</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>142</v>
       </c>

--- a/Secure Messages_Comments_Labeled.xlsx
+++ b/Secure Messages_Comments_Labeled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316316E0-00DF-48CD-9A4D-323A2B0156C1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923709A0-B848-4A21-9E2B-DDDD8440D5A1}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25650" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">

--- a/Secure Messages_Comments_Labeled.xlsx
+++ b/Secure Messages_Comments_Labeled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923709A0-B848-4A21-9E2B-DDDD8440D5A1}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E491ADDD-E918-4BB5-8B4C-A002FA7881B1}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2085" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="159">
   <si>
     <t>The layout is more simple than before.</t>
   </si>
@@ -230,9 +230,6 @@
     <t>I been trying to get an appointment since a month ago and I don't have an appointment yet</t>
   </si>
   <si>
-    <t>unable-to-sched</t>
-  </si>
-  <si>
     <t>I had a knee replacement in June. I need to go to the Dentist. My Dentist asked about Anti-biotics before work.  I reached out to my Surgeon (Community Care Dr.) and he prescribed Amoxycilan ...  Pharmacy called me and said they couldn't as the Dr. no longer has ability to order in VA. My VA primary Dr. that I see is no longer my DR in Murrieta (Dr. Ventura) I reached out on portal. about the situation to my VA ortho Dr.  They must have forwarded the message to Tiffany Slater L message **REDACTED PII** and she said I do have referral and it is good through 12/23/2024.  I tried calling the pharmacy back at the ph# on my bottle for blood pressure meds.**REDACTED PII** and it is an automated number and zeroing out to reach a live person was not an option.  Just thought I'd share... still trying to sort out getting to pharmacy to let them know that they were wrong and I do have authorization for the prescription request from my Community Care Surgeon ... seems like the community care ... didn't!</t>
   </si>
   <si>
@@ -474,6 +471,48 @@
   </si>
   <si>
     <t>Human Sentiment</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Feature Request</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Mixed Status</t>
+  </si>
+  <si>
+    <t>Can't Reply</t>
+  </si>
+  <si>
+    <t>Missing Rx</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Can't Refill</t>
+  </si>
+  <si>
+    <t>Page Length</t>
+  </si>
+  <si>
+    <t>New List</t>
+  </si>
+  <si>
+    <t>Ease of Use</t>
   </si>
 </sst>
 </file>
@@ -586,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,7 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1018,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+      <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,20 +1067,31 @@
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1052,8 +1101,18 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H22" si="0">COUNTIF($B$2:$B$201, $G2)</f>
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1122,18 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1143,18 @@
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1085,8 +1164,18 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1185,18 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1107,8 +1206,18 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1118,8 +1227,18 @@
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1129,8 +1248,18 @@
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1140,8 +1269,18 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1151,8 +1290,15 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1162,8 +1308,15 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1173,8 +1326,15 @@
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1184,8 +1344,15 @@
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1195,8 +1362,15 @@
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1206,8 +1380,15 @@
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1217,8 +1398,15 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1228,8 +1416,15 @@
       <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1239,8 +1434,15 @@
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1250,8 +1452,15 @@
       <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1261,8 +1470,15 @@
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1272,8 +1488,15 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1283,8 +1506,12 @@
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>SUM(H2:H22)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1339,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -1350,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1372,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -1607,8 +1834,8 @@
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>64</v>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -1616,7 +1843,7 @@
     </row>
     <row r="54" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>34</v>
@@ -1627,7 +1854,7 @@
     </row>
     <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>28</v>
@@ -1638,7 +1865,7 @@
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>10</v>
@@ -1649,7 +1876,7 @@
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>10</v>
@@ -1660,7 +1887,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>10</v>
@@ -1671,7 +1898,7 @@
     </row>
     <row r="59" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>28</v>
@@ -1682,7 +1909,7 @@
     </row>
     <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>19</v>
@@ -1693,7 +1920,7 @@
     </row>
     <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>10</v>
@@ -1704,7 +1931,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>28</v>
@@ -1715,7 +1942,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>15</v>
@@ -1726,10 +1953,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -1737,7 +1964,7 @@
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>1</v>
@@ -1748,7 +1975,7 @@
     </row>
     <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>10</v>
@@ -1759,7 +1986,7 @@
     </row>
     <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>13</v>
@@ -1769,8 +1996,8 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>80</v>
+      <c r="A68" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>15</v>
@@ -1780,19 +2007,19 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>34</v>
@@ -1802,8 +2029,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>83</v>
+      <c r="A71" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>19</v>
@@ -1813,8 +2040,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>84</v>
+      <c r="A72" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>4</v>
@@ -1824,19 +2051,19 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>1</v>
@@ -1846,8 +2073,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>87</v>
+      <c r="A75" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>34</v>
@@ -1857,8 +2084,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>88</v>
+      <c r="A76" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>13</v>
@@ -1868,8 +2095,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>89</v>
+      <c r="A77" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>28</v>
@@ -1879,8 +2106,8 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>90</v>
+      <c r="A78" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>13</v>
@@ -1890,19 +2117,19 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>10</v>
@@ -1912,8 +2139,8 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>93</v>
+      <c r="A81" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>1</v>
@@ -1923,29 +2150,29 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -1956,8 +2183,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>96</v>
+      <c r="A85" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>1</v>
@@ -1967,8 +2194,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>97</v>
+      <c r="A86" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>1</v>
@@ -1978,8 +2205,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>98</v>
+      <c r="A87" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>34</v>
@@ -1989,8 +2216,8 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>99</v>
+      <c r="A88" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>34</v>
@@ -2000,41 +2227,41 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="B90" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="B91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>7</v>
@@ -2044,8 +2271,8 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>105</v>
+      <c r="A93" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>34</v>
@@ -2055,8 +2282,8 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>106</v>
+      <c r="A94" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>4</v>
@@ -2066,8 +2293,8 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>107</v>
+      <c r="A95" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>28</v>
@@ -2077,30 +2304,30 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="B97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="7" t="s">
+    </row>
+    <row r="98" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>28</v>
@@ -2110,8 +2337,8 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>112</v>
+      <c r="A99" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>1</v>
@@ -2121,8 +2348,8 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>113</v>
+      <c r="A100" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>1</v>
@@ -2132,8 +2359,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>114</v>
+      <c r="A101" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>1</v>
@@ -2143,8 +2370,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>115</v>
+      <c r="A102" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>19</v>
@@ -2154,8 +2381,8 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>116</v>
+      <c r="A103" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>13</v>
@@ -2165,8 +2392,8 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>117</v>
+      <c r="A104" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>19</v>
@@ -2176,8 +2403,8 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>118</v>
+      <c r="A105" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>1</v>
@@ -2187,8 +2414,8 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>119</v>
+      <c r="A106" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>13</v>
@@ -2198,8 +2425,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>120</v>
+      <c r="A107" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>1</v>
@@ -2209,8 +2436,8 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>121</v>
+      <c r="A108" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>1</v>
@@ -2220,8 +2447,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>122</v>
+      <c r="A109" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>1</v>
@@ -2231,30 +2458,30 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="B111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>34</v>
@@ -2264,8 +2491,8 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>126</v>
+      <c r="A113" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>1</v>
@@ -2275,8 +2502,8 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>127</v>
+      <c r="A114" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>15</v>
@@ -2286,8 +2513,8 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>128</v>
+      <c r="A115" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>34</v>
@@ -2297,8 +2524,8 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>129</v>
+      <c r="A116" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>1</v>
@@ -2308,8 +2535,8 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>130</v>
+      <c r="A117" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>15</v>
@@ -2319,19 +2546,19 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>7</v>
@@ -2341,8 +2568,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>133</v>
+      <c r="A120" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>34</v>
@@ -2352,8 +2579,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>134</v>
+      <c r="A121" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>1</v>
@@ -2363,8 +2590,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>135</v>
+      <c r="A122" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>13</v>
@@ -2374,8 +2601,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>136</v>
+      <c r="A123" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>4</v>
@@ -2385,8 +2612,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>137</v>
+      <c r="A124" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>34</v>
@@ -2396,8 +2623,8 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>138</v>
+      <c r="A125" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>1</v>
@@ -2407,19 +2634,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>1</v>
@@ -2429,21 +2656,21 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -2480,7 +2707,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52 B54:B129" xr:uid="{EA6AF7DC-4881-4D17-A74A-4ECD78C9DC89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{EA6AF7DC-4881-4D17-A74A-4ECD78C9DC89}">
       <formula1>"Answered Question, Benefits, Can't Refill, Can't Reply, Content, Early pop up, Ease of use, Error, Feature Req, Findability/Nav, Integration, Missing Rx, Mixed Status, Other, Page Length, Sign in/access, Sort, Supplies, Triage Group, Unrelated"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C129" xr:uid="{F1513820-A644-4B6F-8504-4425FE4C9AEC}">
@@ -2488,6 +2715,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Secure Messages_Comments_Labeled.xlsx
+++ b/Secure Messages_Comments_Labeled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E491ADDD-E918-4BB5-8B4C-A002FA7881B1}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE340CD0-AECA-45C0-8D2D-88CC33DFBCDD}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2085" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="1560" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H23">
         <f>SUM(H2:H22)</f>
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>

--- a/Secure Messages_Comments_Labeled.xlsx
+++ b/Secure Messages_Comments_Labeled.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE340CD0-AECA-45C0-8D2D-88CC33DFBCDD}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D0CCBA-C11D-4772-B8AB-ABB1E5BEAE7E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="1560" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1056,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1072,7 @@
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1081,17 +1082,8 @@
       <c r="C1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1101,18 +1093,8 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H22" si="0">COUNTIF($B$2:$B$201, $G2)</f>
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1122,18 +1104,8 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1143,18 +1115,8 @@
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1164,18 +1126,8 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1185,18 +1137,8 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1206,18 +1148,8 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1227,18 +1159,8 @@
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1248,18 +1170,8 @@
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1269,18 +1181,8 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1290,15 +1192,8 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1308,15 +1203,8 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1326,15 +1214,8 @@
       <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1344,15 +1225,8 @@
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1362,15 +1236,8 @@
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1380,15 +1247,8 @@
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1398,15 +1258,8 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1416,15 +1269,8 @@
       <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1434,15 +1280,8 @@
       <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1452,15 +1291,8 @@
       <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1470,15 +1302,8 @@
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1488,15 +1313,8 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -1506,12 +1324,8 @@
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H23">
-        <f>SUM(H2:H22)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1522,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1544,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -1577,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1599,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -2719,6 +2533,254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D26D2-49D8-4320-A61A-4695D6D3ECFA}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B22" ca="1" si="0">COUNTIF($B$2:$B$201, $G2)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f ca="1">SUM(B2:B22)</f>
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" enabled="0" method="" siteId="{e95f1b23-abaf-45ee-821d-b7ab251ab3bf}" removed="1"/>
